--- a/Python/webscraping/noticas_G1.xlsx
+++ b/Python/webscraping/noticas_G1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c4f44fa9c197225/Documentos/GitHub/machine_learning_studies/Python/webscraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_674541FC4613CFA9EFE75266CAAC05D24544CD3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC513374-0206-4BE1-989E-C0F60D3E0D41}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_530901E7CA630B108DEE2EDE4ECEA3FA7110A2E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06FFD8C9-38EF-4168-99CC-447836740984}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Titulo</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Massa fala em 'nova etapa' ao votar; Milei critica 'campanha do medo'</t>
+    <t>Quanto você sabe sobre os nossos vizinhos? Faça o quiz</t>
   </si>
   <si>
     <t>Brics, Mercosul e mais: a importância da eleição para o Brasil</t>
@@ -49,7 +49,22 @@
     <t>VÍDEO: equipe de resgate é levada por correnteza e fica presa</t>
   </si>
   <si>
-    <t>https://g1.globo.com/mundo/noticia/2023/11/19/candidatos-votam-nas-eleicoes-da-argentina.ghtml</t>
+    <t>https://g1.globo.com/mundo/noticia/2023/11/19/argentina-vai-as-urnas-o-quanto-voce-sabe-sobre-os-nossos-amados-vizinhos-teste-seus-conhecimentos.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/politica/noticia/2023/11/19/comercio-bilateral-brics-mercosul-as-razoes-por-que-o-governo-brasileiro-acompanha-de-perto-a-eleicao-na-argentina.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/ms/mato-grosso-do-sul/noticia/2023/11/19/estudante-de-engenharia-aeroespacial-e-fa-de-taylor-swift-saiba-quem-era-jovem-que-foi-morto-em-assalto-no-rj.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/rj/rio-de-janeiro/noticia/2023/11/19/shows-de-taylor-swift-no-rio-comecarao-uma-hora-mais-tarde.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/sp/sao-paulo/noticia/2023/11/19/parte-da-regiao-metropolitana-de-sp-registra-falta-de-energia-apos-chuva-forte.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/rs/rio-grande-do-sul/noticia/2023/11/19/video-equipe-de-resgate-e-levada-pela-correnteza-e-fica-presa-a-poste-em-roca-sales.ghtml</t>
   </si>
 </sst>
 </file>
@@ -430,15 +445,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="56.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="160.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -457,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -465,46 +479,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -514,6 +539,7 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
